--- a/ToDelete/ODS_Beschrijving_RevenueManagement_AFC_R3.xlsx
+++ b/ToDelete/ODS_Beschrijving_RevenueManagement_AFC_R3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CMDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CMDB\ToDelete\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="636" yWindow="708" windowWidth="18852" windowHeight="6996" activeTab="1"/>
+    <workbookView xWindow="630" yWindow="705" windowWidth="18855" windowHeight="6990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Historiek" sheetId="23" r:id="rId1"/>
@@ -33,12 +33,12 @@
     <sheet name="lov_15" sheetId="18" state="hidden" r:id="rId19"/>
     <sheet name="lov_16" sheetId="19" state="hidden" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="815">
   <si>
     <t>oracle.dbtools.crest.model.design.relational.Table</t>
   </si>
@@ -1528,9 +1528,6 @@
     <t>5643FEAC-E7F8-9449-6A6A-9FB7ECCFB1EC</t>
   </si>
   <si>
-    <t>Naam ODS</t>
-  </si>
-  <si>
     <t>Opmerking</t>
   </si>
   <si>
@@ -1543,9 +1540,6 @@
     <t>Versie</t>
   </si>
   <si>
-    <t>AUDIT_EIGENSCHAPPEN</t>
-  </si>
-  <si>
     <t>AUDIT_PROPERTIES</t>
   </si>
   <si>
@@ -1576,9 +1570,6 @@
     <t>SEQUENCE_NR</t>
   </si>
   <si>
-    <t>AUDIT_ENTITEITEN</t>
-  </si>
-  <si>
     <t>AUDIT_ENTITIES</t>
   </si>
   <si>
@@ -2077,12 +2068,6 @@
     <t>CASH_REPORT</t>
   </si>
   <si>
-    <t>B2B_BEDRAG_TOTAAL</t>
-  </si>
-  <si>
-    <t>THIRD_PARTY_TOTAL</t>
-  </si>
-  <si>
     <t>SHIFT_ID</t>
   </si>
   <si>
@@ -2399,6 +2384,105 @@
   </si>
   <si>
     <t>EXPECTED_PAYMENT_STATES1</t>
+  </si>
+  <si>
+    <t>RAW(16)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(64 CHAR)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(256 CHAR)</t>
+  </si>
+  <si>
+    <t>NUMBER(10,0)</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>VARCHAR2(2000 CHAR)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(150 CHAR)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(255 CHAR)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(11 CHAR)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(34 CHAR)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(32 CHAR)</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>VARCHAR2(50 CHAR)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(16 CHAR)</t>
+  </si>
+  <si>
+    <t>NUMBER(5,0)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(500 CHAR)</t>
+  </si>
+  <si>
+    <t>NUMBER(9,2)</t>
+  </si>
+  <si>
+    <t>NUMBER(1,0)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(36 CHAR)</t>
+  </si>
+  <si>
+    <t>NVARCHAR2(50)</t>
+  </si>
+  <si>
+    <t>NUMBER(3,0)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(10 CHAR)</t>
+  </si>
+  <si>
+    <t>NUMBER(9,0)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(64)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(8 CHAR)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(128 CHAR)</t>
+  </si>
+  <si>
+    <t>INTERVAL DAY(9) TO SECOND(0)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(50)</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>REV_AUDIT_EIGENSCHAPPEN</t>
+  </si>
+  <si>
+    <t>REV_AUDIT_ENTITEITEN</t>
+  </si>
+  <si>
+    <t>REV_AUDIT_EVENTS</t>
   </si>
 </sst>
 </file>
@@ -2470,7 +2554,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2493,11 +2577,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2527,6 +2652,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2535,7 +2672,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2646,7 +2783,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="kapsch_CMYK_71mm_blackyellow_300dpi"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="kapsch_CMYK_71mm_blackyellow_300dpi">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2719,7 +2862,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1192" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="1192" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A8040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2764,9 +2913,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2804,7 +2953,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2910,7 +3059,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3090,55 +3239,55 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="30.6640625" customWidth="1"/>
+    <col min="1" max="4" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>500</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>42440</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>42550</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3159,9 +3308,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>459</v>
       </c>
@@ -3181,9 +3330,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>461</v>
       </c>
@@ -3191,7 +3340,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>463</v>
       </c>
@@ -3211,9 +3360,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>465</v>
       </c>
@@ -3221,7 +3370,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>467</v>
       </c>
@@ -3229,7 +3378,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>469</v>
       </c>
@@ -3237,7 +3386,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>471</v>
       </c>
@@ -3257,9 +3406,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>461</v>
       </c>
@@ -3267,7 +3416,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>463</v>
       </c>
@@ -3287,9 +3436,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>473</v>
       </c>
@@ -3309,9 +3458,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>475</v>
       </c>
@@ -3319,7 +3468,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>476</v>
       </c>
@@ -3327,7 +3476,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>477</v>
       </c>
@@ -3347,9 +3496,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>478</v>
       </c>
@@ -3357,7 +3506,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>480</v>
       </c>
@@ -3365,7 +3514,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>482</v>
       </c>
@@ -3385,9 +3534,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -3395,7 +3544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -3403,7 +3552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3411,7 +3560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -3419,7 +3568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -3427,7 +3576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -3435,7 +3584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -3443,7 +3592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -3451,7 +3600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -3459,7 +3608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3467,7 +3616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -3475,7 +3624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -3483,7 +3632,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -3503,9 +3652,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -3513,7 +3662,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -3521,7 +3670,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -3529,7 +3678,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -3537,7 +3686,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -3545,7 +3694,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -3553,7 +3702,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -3561,7 +3710,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -3569,7 +3718,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -3577,7 +3726,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -3585,7 +3734,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -3593,7 +3742,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -3601,7 +3750,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -3609,7 +3758,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -3617,7 +3766,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>60</v>
       </c>
@@ -3625,7 +3774,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -3633,7 +3782,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
@@ -3641,7 +3790,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
@@ -3649,7 +3798,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -3657,7 +3806,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -3665,7 +3814,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -3673,7 +3822,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
@@ -3681,7 +3830,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>73</v>
       </c>
@@ -3689,7 +3838,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>74</v>
       </c>
@@ -3697,7 +3846,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
@@ -3705,7 +3854,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
@@ -3713,7 +3862,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -3721,7 +3870,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
@@ -3729,7 +3878,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
@@ -3737,7 +3886,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>86</v>
       </c>
@@ -3745,7 +3894,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
@@ -3753,7 +3902,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>90</v>
       </c>
@@ -3761,7 +3910,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>92</v>
       </c>
@@ -3769,7 +3918,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>94</v>
       </c>
@@ -3777,7 +3926,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>96</v>
       </c>
@@ -3785,7 +3934,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>98</v>
       </c>
@@ -3793,7 +3942,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>100</v>
       </c>
@@ -3801,7 +3950,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
@@ -3809,7 +3958,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>104</v>
       </c>
@@ -3817,7 +3966,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>102</v>
       </c>
@@ -3825,7 +3974,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>106</v>
       </c>
@@ -3833,7 +3982,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>107</v>
       </c>
@@ -3841,7 +3990,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>111</v>
       </c>
@@ -3849,7 +3998,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>110</v>
       </c>
@@ -3857,7 +4006,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>108</v>
       </c>
@@ -3865,7 +4014,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>112</v>
       </c>
@@ -3873,7 +4022,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>113</v>
       </c>
@@ -3881,7 +4030,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>114</v>
       </c>
@@ -3889,7 +4038,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>116</v>
       </c>
@@ -3897,7 +4046,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>118</v>
       </c>
@@ -3905,7 +4054,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>120</v>
       </c>
@@ -3913,7 +4062,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>121</v>
       </c>
@@ -3921,7 +4070,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>122</v>
       </c>
@@ -3929,7 +4078,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>123</v>
       </c>
@@ -3937,7 +4086,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>124</v>
       </c>
@@ -3945,7 +4094,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>125</v>
       </c>
@@ -3953,7 +4102,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>126</v>
       </c>
@@ -3961,7 +4110,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>127</v>
       </c>
@@ -3969,7 +4118,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>128</v>
       </c>
@@ -3977,7 +4126,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>129</v>
       </c>
@@ -3985,7 +4134,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>130</v>
       </c>
@@ -3993,7 +4142,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>131</v>
       </c>
@@ -4001,7 +4150,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>132</v>
       </c>
@@ -4009,7 +4158,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>134</v>
       </c>
@@ -4017,7 +4166,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>136</v>
       </c>
@@ -4025,7 +4174,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>138</v>
       </c>
@@ -4033,7 +4182,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>140</v>
       </c>
@@ -4041,7 +4190,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>142</v>
       </c>
@@ -4049,7 +4198,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>144</v>
       </c>
@@ -4057,7 +4206,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>146</v>
       </c>
@@ -4065,7 +4214,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>148</v>
       </c>
@@ -4073,7 +4222,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>150</v>
       </c>
@@ -4081,7 +4230,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>152</v>
       </c>
@@ -4089,7 +4238,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>154</v>
       </c>
@@ -4097,7 +4246,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>156</v>
       </c>
@@ -4105,7 +4254,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>158</v>
       </c>
@@ -4113,7 +4262,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>160</v>
       </c>
@@ -4121,7 +4270,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>161</v>
       </c>
@@ -4129,7 +4278,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>165</v>
       </c>
@@ -4137,7 +4286,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>163</v>
       </c>
@@ -4145,7 +4294,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>166</v>
       </c>
@@ -4153,7 +4302,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>171</v>
       </c>
@@ -4161,7 +4310,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>168</v>
       </c>
@@ -4169,7 +4318,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>170</v>
       </c>
@@ -4177,7 +4326,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>172</v>
       </c>
@@ -4185,7 +4334,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>176</v>
       </c>
@@ -4193,7 +4342,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>174</v>
       </c>
@@ -4201,7 +4350,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>177</v>
       </c>
@@ -4209,7 +4358,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>179</v>
       </c>
@@ -4217,7 +4366,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>181</v>
       </c>
@@ -4225,7 +4374,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>183</v>
       </c>
@@ -4233,7 +4382,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>185</v>
       </c>
@@ -4241,7 +4390,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>187</v>
       </c>
@@ -4249,7 +4398,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>189</v>
       </c>
@@ -4257,7 +4406,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>191</v>
       </c>
@@ -4265,7 +4414,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>193</v>
       </c>
@@ -4273,7 +4422,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>195</v>
       </c>
@@ -4281,7 +4430,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>199</v>
       </c>
@@ -4289,7 +4438,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>197</v>
       </c>
@@ -4297,7 +4446,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>202</v>
       </c>
@@ -4305,7 +4454,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>200</v>
       </c>
@@ -4313,7 +4462,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>203</v>
       </c>
@@ -4321,7 +4470,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>205</v>
       </c>
@@ -4329,7 +4478,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>207</v>
       </c>
@@ -4337,7 +4486,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>209</v>
       </c>
@@ -4345,7 +4494,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>211</v>
       </c>
@@ -4353,7 +4502,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>213</v>
       </c>
@@ -4361,7 +4510,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>215</v>
       </c>
@@ -4369,7 +4518,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>217</v>
       </c>
@@ -4377,7 +4526,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>219</v>
       </c>
@@ -4385,7 +4534,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>221</v>
       </c>
@@ -4393,7 +4542,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>223</v>
       </c>
@@ -4401,7 +4550,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>225</v>
       </c>
@@ -4409,7 +4558,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>227</v>
       </c>
@@ -4417,7 +4566,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>229</v>
       </c>
@@ -4425,7 +4574,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>230</v>
       </c>
@@ -4433,7 +4582,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>231</v>
       </c>
@@ -4441,7 +4590,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>232</v>
       </c>
@@ -4449,7 +4598,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>233</v>
       </c>
@@ -4457,7 +4606,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>235</v>
       </c>
@@ -4465,7 +4614,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>237</v>
       </c>
@@ -4473,7 +4622,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>239</v>
       </c>
@@ -4481,7 +4630,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>241</v>
       </c>
@@ -4489,7 +4638,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>242</v>
       </c>
@@ -4497,7 +4646,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>244</v>
       </c>
@@ -4505,7 +4654,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>246</v>
       </c>
@@ -4513,7 +4662,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>248</v>
       </c>
@@ -4521,7 +4670,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>250</v>
       </c>
@@ -4529,7 +4678,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>252</v>
       </c>
@@ -4537,7 +4686,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>254</v>
       </c>
@@ -4545,7 +4694,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>255</v>
       </c>
@@ -4553,7 +4702,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>256</v>
       </c>
@@ -4561,7 +4710,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>258</v>
       </c>
@@ -4569,7 +4718,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>260</v>
       </c>
@@ -4577,7 +4726,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>262</v>
       </c>
@@ -4585,7 +4734,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>264</v>
       </c>
@@ -4593,7 +4742,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>266</v>
       </c>
@@ -4601,7 +4750,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>268</v>
       </c>
@@ -4609,7 +4758,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>270</v>
       </c>
@@ -4617,7 +4766,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>271</v>
       </c>
@@ -4637,9 +4786,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>484</v>
       </c>
@@ -4647,7 +4796,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>485</v>
       </c>
@@ -4655,7 +4804,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>486</v>
       </c>
@@ -4663,7 +4812,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>487</v>
       </c>
@@ -4671,7 +4820,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>488</v>
       </c>
@@ -4679,7 +4828,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>489</v>
       </c>
@@ -4687,7 +4836,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>490</v>
       </c>
@@ -4695,7 +4844,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>491</v>
       </c>
@@ -4703,7 +4852,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>492</v>
       </c>
@@ -4711,7 +4860,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>493</v>
       </c>
@@ -4719,7 +4868,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>494</v>
       </c>
@@ -4727,7 +4876,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>495</v>
       </c>
@@ -4743,1237 +4892,1684 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D342"/>
+  <dimension ref="A1:F341"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="E326" sqref="E326"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="30.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="4" width="30.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="9"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>501</v>
+        <v>812</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="C9" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="C10" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="C11" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="C12" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="C13" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="9"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>512</v>
+        <v>813</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="C22" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="C23" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="C24" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="C25" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="C26" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="C27" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="C28" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="9"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>523</v>
+        <v>814</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="C37" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="C38" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="C39" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="C40" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="C41" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="C42" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="9"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="C49" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D49" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="C50" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="C51" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="C52" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="C53" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>536</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="C54" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="C55" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="C56" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="C57" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="C58" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F58" s="12"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="C59" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F59" s="12"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="C60" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="F60" s="12"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="C61" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="F61" s="12"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="C62" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="F62" s="12"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="C63" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="F63" s="12"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="C64" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F64" s="12"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="C65" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="C66" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F66" s="12"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="C67" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D67" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="F67" s="12"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="C68" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="C69" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F69" s="12"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="C70" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="F70" s="12"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="C71" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="F71" s="12"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="C72" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="F72" s="12"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="C73" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="F73" s="12"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="C74" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D74" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="C75" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="F75" s="12"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="C76" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="F76" s="12"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="C77" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="F77" s="12"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="C78" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>578</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="F78" s="12"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="C79" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="F79" s="12"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="C80" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="F80" s="12"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="C81" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="F81" s="12"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="C82" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="F82" s="12"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="C83" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="11" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="C84" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D84" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="F84" s="12"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="C85" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="C86" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F86" s="12"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="C87" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F87" s="12"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="C88" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D88" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F88" s="12"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="C89" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="F89" s="12"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="C90" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F90" s="12"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="C91" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F91" s="12"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="1:4" ht="10.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="9"/>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="C99" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>799</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="C100" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+        <v>607</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="C101" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F101" s="12"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="C102" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="C103" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="C104" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>800</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="9"/>
       <c r="D107" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C108" s="10"/>
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
-      <c r="C111" s="7" t="s">
-        <v>496</v>
-      </c>
+      <c r="C111" s="7"/>
       <c r="D111" s="7"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="C112" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="C113" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D113" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="9"/>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="C120" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F120" s="12"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="C121" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="C122" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D122" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E122" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="C123" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D123" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="F123" s="12"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="9"/>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C126" s="10"/>
       <c r="D126" s="3"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="3"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="C130" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D130" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="C131" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="C132" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F132" s="12"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="C133" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D133" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E133" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="C134" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+        <v>624</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="C135" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F135" s="12"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="C136" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F136" s="12"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="C137" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F137" s="12"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="C138" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+        <v>632</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="C139" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="C140" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="C141" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="C142" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+        <v>640</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="C143" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+        <v>642</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="C144" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D144" s="5" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D144" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="C145" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+        <v>645</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="C146" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="9"/>
       <c r="D150" s="3"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="3"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="3"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="C155" s="5" t="s">
         <v>119</v>
@@ -5981,1449 +6577,2016 @@
       <c r="D155" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E155" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="C156" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D156" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>802</v>
+      </c>
+      <c r="F156" s="12"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="9"/>
       <c r="D158" s="3"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="3"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="C163" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D163" s="5" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D163" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="C164" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F164" s="12"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="C165" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+        <v>654</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="F165" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="C166" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D166" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E166" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F166" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="C167" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+        <v>624</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="E167" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F167" s="12"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="9"/>
       <c r="D169" s="3"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C170" s="10"/>
       <c r="D170" s="3"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="C174" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D174" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E174" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="F174" s="12"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="C175" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+        <v>659</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="E175" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F175" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="C176" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="D176" s="5" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="E176" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F176" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="C177" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+        <v>663</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="E177" s="12" t="s">
+        <v>805</v>
+      </c>
+      <c r="F177" s="12"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="C178" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="E178" s="12" t="s">
+        <v>805</v>
+      </c>
+      <c r="F178" s="12"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="C179" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D179" s="5" t="s">
+      <c r="D179" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E179" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F179" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="C180" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D180" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D180" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="E180" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="F180" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="C181" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D181" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D181" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="E181" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="F181" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="9"/>
       <c r="D183" s="3"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C184" s="10"/>
       <c r="D184" s="3"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
       <c r="D186" s="3"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="C188" s="5" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+        <v>672</v>
+      </c>
+      <c r="E188" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F188" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="C189" s="5" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+        <v>674</v>
+      </c>
+      <c r="E189" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F189" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="9"/>
       <c r="D193" s="3"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C194" s="10"/>
       <c r="D194" s="3"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
       <c r="D196" s="3"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
-      <c r="C197" s="7"/>
-      <c r="D197" s="7"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C197" s="13"/>
+      <c r="D197" s="13"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
-      <c r="C198" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C198" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D198" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E198" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F198" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
-      <c r="C199" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D199" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C199" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D199" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E199" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F199" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
-      <c r="C200" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C200" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="D200" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="E200" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F200" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
-      <c r="C201" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C201" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="D201" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="E201" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F201" s="12"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
-      <c r="C202" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C202" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="D202" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="E202" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="F202" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
-      <c r="C203" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="10.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" s="4"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="9"/>
       <c r="D205" s="3"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="4"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="9"/>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="C206" s="10"/>
       <c r="D206" s="3"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="C207" s="10"/>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
       <c r="D207" s="3"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
       <c r="D208" s="3"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
-      <c r="B209" s="6"/>
-      <c r="C209" s="6"/>
-      <c r="D209" s="3"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C209" s="7"/>
+      <c r="D209" s="7"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="3"/>
-      <c r="C210" s="7"/>
-      <c r="D210" s="7"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C210" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="E210" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F210" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="3"/>
       <c r="C211" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="D211" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="D211" s="11" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E211" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="F211" s="12"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
       <c r="C212" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="D212" s="5" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="D212" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="E212" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="F212" s="12"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="3"/>
       <c r="C213" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="D213" s="5" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+        <v>683</v>
+      </c>
+      <c r="D213" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="E213" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="F213" s="12"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="3"/>
       <c r="C214" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="D214" s="5" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+        <v>684</v>
+      </c>
+      <c r="D214" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E214" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="F214" s="12"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="3"/>
       <c r="C215" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="D215" s="5" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+      <c r="D215" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="E215" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="F215" s="12"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="3"/>
       <c r="C216" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D216" s="5" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+        <v>685</v>
+      </c>
+      <c r="D216" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="E216" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F216" s="12"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="3"/>
       <c r="C217" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+      <c r="D217" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="E217" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F217" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="3"/>
       <c r="C218" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="D218" s="5" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+      <c r="D218" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="E218" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F218" s="12"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="3"/>
       <c r="C219" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="D219" s="5" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="D219" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E219" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F219" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="3"/>
       <c r="C220" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D220" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+      <c r="D220" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="E220" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="F220" s="12"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="3"/>
       <c r="C221" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="D221" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="D221" s="5" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E221" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="F221" s="12"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="3"/>
       <c r="C222" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="D222" s="5" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+        <v>687</v>
+      </c>
+      <c r="D222" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="E222" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="F222" s="12"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="3"/>
       <c r="C223" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="D223" s="5" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+        <v>688</v>
+      </c>
+      <c r="D223" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="E223" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="F223" s="12"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="3"/>
       <c r="C224" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="D224" s="5" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+      <c r="D224" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="E224" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="F224" s="12"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="3"/>
       <c r="C225" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="D225" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+      <c r="D225" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="E225" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F225" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="3"/>
       <c r="C226" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D226" s="5" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+        <v>690</v>
+      </c>
+      <c r="D226" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="E226" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="F226" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>
       <c r="C227" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="D227" s="5" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+        <v>692</v>
+      </c>
+      <c r="D227" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="E227" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F227" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="3"/>
       <c r="C228" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="D228" s="5" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="D228" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E228" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F228" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="3"/>
       <c r="C229" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D229" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+      <c r="D229" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="E229" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="F229" s="12"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
       <c r="C230" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="D230" s="5" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+      <c r="D230" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="E230" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F230" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>
       <c r="C231" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="D231" s="5" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+      <c r="D231" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="E231" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F231" s="12"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>
       <c r="C232" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="D232" s="5" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+      <c r="D232" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="E232" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F232" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>
       <c r="C233" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="D233" s="5" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+      <c r="D233" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="E233" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F233" s="12"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="3"/>
       <c r="C234" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="D234" s="5" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+      <c r="D234" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="E234" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F234" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>
       <c r="C235" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="D235" s="5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+        <v>702</v>
+      </c>
+      <c r="D235" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="E235" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="F235" s="12"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>
-      <c r="C236" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="D236" s="5" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="3"/>
-      <c r="B239" s="3"/>
-      <c r="C239" s="3"/>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" s="4"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="9"/>
       <c r="D239" s="3"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="4"/>
-      <c r="B240" s="4"/>
-      <c r="C240" s="9"/>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="C240" s="10"/>
       <c r="D240" s="3"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="B241" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="C241" s="10"/>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" s="3"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
       <c r="D241" s="3"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="3"/>
-      <c r="B242" s="3"/>
-      <c r="C242" s="3"/>
+      <c r="B242" s="6"/>
+      <c r="C242" s="6"/>
       <c r="D242" s="3"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="3"/>
-      <c r="B243" s="6"/>
-      <c r="C243" s="6"/>
-      <c r="D243" s="3"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C243" s="7"/>
+      <c r="D243" s="7"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="3"/>
-      <c r="C244" s="7"/>
-      <c r="D244" s="7"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C244" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D244" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="E244" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F244" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="3"/>
       <c r="C245" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D245" s="5" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="D245" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E245" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="F245" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>
       <c r="C246" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D246" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+      <c r="D246" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="E246" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F246" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="3"/>
       <c r="C247" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="D247" s="5" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+      <c r="D247" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="E247" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F247" s="12"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="3"/>
       <c r="C248" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="D248" s="5" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+        <v>710</v>
+      </c>
+      <c r="D248" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="E248" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F248" s="12"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="3"/>
       <c r="C249" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="D249" s="5" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+      <c r="D249" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="E249" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F249" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="3"/>
       <c r="C250" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="D250" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="D250" s="5" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E250" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F250" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="3"/>
       <c r="C251" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="D251" s="5" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="D251" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="E251" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F251" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="3"/>
       <c r="C252" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D252" s="5" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="D252" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="E252" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="F252" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="3"/>
       <c r="C253" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D253" s="5" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="D253" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E253" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F253" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="3"/>
       <c r="C254" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D254" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="D254" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="E254" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F254" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="3"/>
       <c r="C255" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D255" s="5" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="D255" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E255" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F255" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="3"/>
       <c r="C256" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D256" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+      <c r="D256" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="E256" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F256" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="3"/>
-      <c r="C257" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="D257" s="5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="3"/>
-      <c r="B258" s="3"/>
-      <c r="C258" s="3"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258" s="4"/>
+      <c r="B258" s="4"/>
+      <c r="C258" s="9"/>
       <c r="D258" s="3"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="4"/>
-      <c r="B259" s="4"/>
-      <c r="C259" s="9"/>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="C259" s="10"/>
       <c r="D259" s="3"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="B260" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="C260" s="10"/>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260" s="3"/>
+      <c r="B260" s="3"/>
+      <c r="C260" s="3"/>
       <c r="D260" s="3"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="3"/>
-      <c r="B261" s="3"/>
-      <c r="C261" s="3"/>
+      <c r="B261" s="6"/>
+      <c r="C261" s="6"/>
       <c r="D261" s="3"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="3"/>
-      <c r="B262" s="6"/>
-      <c r="C262" s="6"/>
-      <c r="D262" s="3"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C262" s="7"/>
+      <c r="D262" s="7"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="3"/>
-      <c r="C263" s="7"/>
-      <c r="D263" s="7"/>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C263" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="D263" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="E263" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F263" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="3"/>
       <c r="C264" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="D264" s="5" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+        <v>717</v>
+      </c>
+      <c r="D264" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="E264" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="F264" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="3"/>
       <c r="C265" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="D265" s="5" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+        <v>719</v>
+      </c>
+      <c r="D265" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="E265" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="F265" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="3"/>
       <c r="C266" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="D266" s="5" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+        <v>721</v>
+      </c>
+      <c r="D266" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="E266" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F266" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="3"/>
       <c r="C267" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="D267" s="5" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+        <v>723</v>
+      </c>
+      <c r="D267" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="E267" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F267" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="3"/>
       <c r="C268" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="D268" s="5" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="D268" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E268" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F268" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="3"/>
       <c r="C269" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D269" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+      <c r="D269" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="E269" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F269" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="3"/>
       <c r="C270" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="D270" s="5" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+      <c r="D270" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E270" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="F270" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="3"/>
       <c r="C271" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="D271" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+        <v>726</v>
+      </c>
+      <c r="D271" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="E271" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F271" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="3"/>
       <c r="C272" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="D272" s="5" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="D272" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="E272" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="F272" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="3"/>
       <c r="C273" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D273" s="5" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+      <c r="D273" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="E273" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F273" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="3"/>
-      <c r="C274" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="D274" s="5" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B274" s="3"/>
+      <c r="C274" s="3"/>
+      <c r="D274" s="3"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="3"/>
-      <c r="B277" s="3"/>
-      <c r="C277" s="3"/>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277" s="4"/>
+      <c r="B277" s="4"/>
+      <c r="C277" s="9"/>
       <c r="D277" s="3"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278" s="4"/>
-      <c r="B278" s="4"/>
-      <c r="C278" s="9"/>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="C278" s="10"/>
       <c r="D278" s="3"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="C279" s="10"/>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279" s="3"/>
+      <c r="B279" s="3"/>
+      <c r="C279" s="3"/>
       <c r="D279" s="3"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="3"/>
-      <c r="B280" s="3"/>
-      <c r="C280" s="3"/>
+      <c r="B280" s="6"/>
+      <c r="C280" s="6"/>
       <c r="D280" s="3"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="3"/>
-      <c r="B281" s="6"/>
-      <c r="C281" s="6"/>
-      <c r="D281" s="3"/>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C281" s="7"/>
+      <c r="D281" s="7"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="3"/>
-      <c r="C282" s="7"/>
-      <c r="D282" s="7"/>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C282" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D282" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="E282" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="F282" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="3"/>
       <c r="C283" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D283" s="5" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="D283" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E283" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F283" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="3"/>
       <c r="C284" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D284" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+      <c r="D284" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="E284" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F284" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="3"/>
       <c r="C285" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="D285" s="5" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+        <v>733</v>
+      </c>
+      <c r="D285" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="E285" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F285" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="3"/>
       <c r="C286" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="D286" s="5" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+      <c r="D286" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="E286" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F286" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="3"/>
       <c r="C287" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="D287" s="5" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+      <c r="D287" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="E287" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F287" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="3"/>
       <c r="C288" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="D288" s="5" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+        <v>737</v>
+      </c>
+      <c r="D288" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="E288" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F288" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="3"/>
       <c r="C289" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="D289" s="5" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+        <v>683</v>
+      </c>
+      <c r="D289" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="E289" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="F289" s="12"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="3"/>
       <c r="C290" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="D290" s="5" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+        <v>739</v>
+      </c>
+      <c r="D290" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="E290" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="F290" s="12"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="3"/>
       <c r="C291" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="D291" s="5" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+        <v>741</v>
+      </c>
+      <c r="D291" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="E291" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="F291" s="12"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="3"/>
       <c r="C292" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="D292" s="5" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+      <c r="D292" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="E292" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="F292" s="12"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="3"/>
       <c r="C293" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="D293" s="5" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+        <v>684</v>
+      </c>
+      <c r="D293" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E293" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="F293" s="12"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="3"/>
       <c r="C294" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="D294" s="5" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+      <c r="D294" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="E294" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="F294" s="12"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="3"/>
       <c r="C295" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D295" s="5" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+        <v>745</v>
+      </c>
+      <c r="D295" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="E295" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="F295" s="12"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="3"/>
       <c r="C296" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="D296" s="5" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+        <v>747</v>
+      </c>
+      <c r="D296" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="E296" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="F296" s="12"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="3"/>
       <c r="C297" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="D297" s="5" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="D297" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="E297" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="F297" s="12"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="3"/>
       <c r="C298" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D298" s="5" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="D298" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="E298" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="F298" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="3"/>
       <c r="C299" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D299" s="5" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="D299" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="E299" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F299" s="12"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="3"/>
       <c r="C300" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D300" s="5" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="D300" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E300" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F300" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="3"/>
       <c r="C301" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D301" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="D301" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="E301" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="F301" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="3"/>
       <c r="C302" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D302" s="5" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+        <v>750</v>
+      </c>
+      <c r="D302" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="E302" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F302" s="12"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="3"/>
       <c r="C303" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="D303" s="5" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+        <v>687</v>
+      </c>
+      <c r="D303" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="E303" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="F303" s="12"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="3"/>
       <c r="C304" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="D304" s="5" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+        <v>752</v>
+      </c>
+      <c r="D304" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="E304" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="F304" s="12"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="3"/>
       <c r="C305" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="D305" s="5" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+        <v>754</v>
+      </c>
+      <c r="D305" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="E305" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="F305" s="12"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="3"/>
       <c r="C306" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="D306" s="5" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+        <v>756</v>
+      </c>
+      <c r="D306" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="E306" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="F306" s="12"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="3"/>
       <c r="C307" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="D307" s="5" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+        <v>688</v>
+      </c>
+      <c r="D307" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="E307" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="F307" s="12"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="3"/>
       <c r="C308" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="D308" s="5" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+        <v>758</v>
+      </c>
+      <c r="D308" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="E308" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F308" s="12"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="3"/>
       <c r="C309" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="D309" s="5" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+        <v>760</v>
+      </c>
+      <c r="D309" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="E309" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="F309" s="12"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="3"/>
       <c r="C310" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="D310" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+        <v>762</v>
+      </c>
+      <c r="D310" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="E310" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="F310" s="12"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="3"/>
       <c r="C311" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="D311" s="5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+      <c r="D311" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="E311" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F311" s="12"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="3"/>
       <c r="C312" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="D312" s="5" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+        <v>690</v>
+      </c>
+      <c r="D312" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="E312" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="F312" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="3"/>
       <c r="C313" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="D313" s="5" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+        <v>766</v>
+      </c>
+      <c r="D313" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="E313" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F313" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="3"/>
       <c r="C314" s="5" t="s">
-        <v>771</v>
-      </c>
-      <c r="D314" s="5" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+        <v>767</v>
+      </c>
+      <c r="D314" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="E314" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F314" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="3"/>
       <c r="C315" s="5" t="s">
-        <v>772</v>
-      </c>
-      <c r="D315" s="5" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+        <v>769</v>
+      </c>
+      <c r="D315" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="E315" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="F315" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="3"/>
       <c r="C316" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="D316" s="5" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+      <c r="D316" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="E316" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F316" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="3"/>
       <c r="C317" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="D317" s="5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+        <v>771</v>
+      </c>
+      <c r="D317" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="E317" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="F317" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="3"/>
-      <c r="C318" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="D318" s="5" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B318" s="3"/>
+      <c r="C318" s="3"/>
+      <c r="D318" s="3"/>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="3"/>
-      <c r="B321" s="3"/>
-      <c r="C321" s="3"/>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A321" s="4"/>
+      <c r="B321" s="4"/>
+      <c r="C321" s="9"/>
       <c r="D321" s="3"/>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="4"/>
-      <c r="B322" s="4"/>
-      <c r="C322" s="9"/>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A322" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="C322" s="10"/>
       <c r="D322" s="3"/>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="B323" s="5" t="s">
-        <v>778</v>
-      </c>
-      <c r="C323" s="10"/>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A323" s="3"/>
+      <c r="B323" s="3"/>
+      <c r="C323" s="3"/>
       <c r="D323" s="3"/>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="3"/>
-      <c r="B324" s="3"/>
-      <c r="C324" s="3"/>
+      <c r="B324" s="6"/>
+      <c r="C324" s="6"/>
       <c r="D324" s="3"/>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="3"/>
-      <c r="B325" s="6"/>
-      <c r="C325" s="6"/>
-      <c r="D325" s="3"/>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C325" s="7"/>
+      <c r="D325" s="7"/>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="3"/>
-      <c r="C326" s="7"/>
-      <c r="D326" s="7"/>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C326" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D326" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E326" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="F326" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="3"/>
       <c r="C327" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D327" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="D327" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="E327" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="F327" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="3"/>
-      <c r="C328" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D328" s="5" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B328" s="3"/>
+      <c r="C328" s="3"/>
+      <c r="D328" s="3"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="3"/>
-      <c r="B330" s="3"/>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A330" s="4"/>
+      <c r="B330" s="4"/>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="4"/>
-      <c r="B331" s="4"/>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A331" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>781</v>
+      </c>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="B332" s="5" t="s">
-        <v>786</v>
-      </c>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A332" s="3"/>
+      <c r="B332" s="3"/>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -7458,12 +8621,6 @@
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="3"/>
-      <c r="B342" s="3"/>
-      <c r="C342" s="3"/>
-      <c r="D342" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7481,9 +8638,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>297</v>
       </c>
@@ -7491,7 +8648,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>299</v>
       </c>
@@ -7499,7 +8656,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>301</v>
       </c>
@@ -7507,7 +8664,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>305</v>
       </c>
@@ -7515,7 +8672,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>307</v>
       </c>
@@ -7523,7 +8680,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>309</v>
       </c>
@@ -7531,7 +8688,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>311</v>
       </c>
@@ -7539,7 +8696,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>313</v>
       </c>
@@ -7547,7 +8704,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>315</v>
       </c>
@@ -7555,7 +8712,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>317</v>
       </c>
@@ -7563,7 +8720,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>319</v>
       </c>
@@ -7571,7 +8728,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>321</v>
       </c>
@@ -7591,9 +8748,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -7610,7 +8767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7639,7 +8796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7670,9 +8827,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -7680,7 +8837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -7688,7 +8845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -7696,7 +8853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -7704,7 +8861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -7712,7 +8869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -7720,7 +8877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -7728,7 +8885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -7736,7 +8893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -7744,7 +8901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -7752,7 +8909,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -7760,7 +8917,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -7768,7 +8925,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -7788,9 +8945,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -7798,7 +8955,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -7806,7 +8963,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -7814,7 +8971,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -7822,7 +8979,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -7830,7 +8987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -7838,7 +8995,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -7846,7 +9003,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -7854,7 +9011,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -7862,7 +9019,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -7870,7 +9027,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -7878,7 +9035,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -7886,7 +9043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -7894,7 +9051,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -7902,7 +9059,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
@@ -7910,7 +9067,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -7918,7 +9075,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
@@ -7926,7 +9083,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
@@ -7934,7 +9091,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -7942,7 +9099,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -7950,7 +9107,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -7958,7 +9115,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
@@ -7966,7 +9123,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>73</v>
       </c>
@@ -7974,7 +9131,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>74</v>
       </c>
@@ -7982,7 +9139,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
@@ -7990,7 +9147,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
@@ -7998,7 +9155,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -8006,7 +9163,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
@@ -8014,7 +9171,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
@@ -8022,7 +9179,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>86</v>
       </c>
@@ -8030,7 +9187,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
@@ -8038,7 +9195,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>90</v>
       </c>
@@ -8046,7 +9203,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>92</v>
       </c>
@@ -8054,7 +9211,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>94</v>
       </c>
@@ -8062,7 +9219,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>96</v>
       </c>
@@ -8070,7 +9227,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>98</v>
       </c>
@@ -8078,7 +9235,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>100</v>
       </c>
@@ -8086,7 +9243,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>102</v>
       </c>
@@ -8094,7 +9251,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>104</v>
       </c>
@@ -8102,7 +9259,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>105</v>
       </c>
@@ -8110,7 +9267,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>106</v>
       </c>
@@ -8118,7 +9275,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>107</v>
       </c>
@@ -8126,7 +9283,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>108</v>
       </c>
@@ -8134,7 +9291,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>110</v>
       </c>
@@ -8142,7 +9299,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>111</v>
       </c>
@@ -8150,7 +9307,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>112</v>
       </c>
@@ -8158,7 +9315,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>113</v>
       </c>
@@ -8166,7 +9323,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>114</v>
       </c>
@@ -8174,7 +9331,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>116</v>
       </c>
@@ -8182,7 +9339,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>118</v>
       </c>
@@ -8190,7 +9347,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>120</v>
       </c>
@@ -8198,7 +9355,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>121</v>
       </c>
@@ -8206,7 +9363,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>122</v>
       </c>
@@ -8214,7 +9371,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>123</v>
       </c>
@@ -8222,7 +9379,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>124</v>
       </c>
@@ -8230,7 +9387,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>125</v>
       </c>
@@ -8238,7 +9395,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>126</v>
       </c>
@@ -8246,7 +9403,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>127</v>
       </c>
@@ -8254,7 +9411,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>128</v>
       </c>
@@ -8262,7 +9419,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>129</v>
       </c>
@@ -8270,7 +9427,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>130</v>
       </c>
@@ -8278,7 +9435,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>131</v>
       </c>
@@ -8286,7 +9443,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>132</v>
       </c>
@@ -8294,7 +9451,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>134</v>
       </c>
@@ -8302,7 +9459,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>136</v>
       </c>
@@ -8310,7 +9467,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>138</v>
       </c>
@@ -8318,7 +9475,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>140</v>
       </c>
@@ -8326,7 +9483,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>142</v>
       </c>
@@ -8334,7 +9491,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>144</v>
       </c>
@@ -8342,7 +9499,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>146</v>
       </c>
@@ -8350,7 +9507,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>148</v>
       </c>
@@ -8358,7 +9515,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>150</v>
       </c>
@@ -8366,7 +9523,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>152</v>
       </c>
@@ -8374,7 +9531,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>154</v>
       </c>
@@ -8382,7 +9539,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>156</v>
       </c>
@@ -8390,7 +9547,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>158</v>
       </c>
@@ -8398,7 +9555,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>160</v>
       </c>
@@ -8406,7 +9563,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>161</v>
       </c>
@@ -8414,7 +9571,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>163</v>
       </c>
@@ -8422,7 +9579,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>165</v>
       </c>
@@ -8430,7 +9587,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>166</v>
       </c>
@@ -8438,7 +9595,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>168</v>
       </c>
@@ -8446,7 +9603,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>170</v>
       </c>
@@ -8454,7 +9611,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>171</v>
       </c>
@@ -8462,7 +9619,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>172</v>
       </c>
@@ -8470,7 +9627,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>174</v>
       </c>
@@ -8478,7 +9635,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>176</v>
       </c>
@@ -8486,7 +9643,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>177</v>
       </c>
@@ -8494,7 +9651,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>179</v>
       </c>
@@ -8502,7 +9659,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>181</v>
       </c>
@@ -8510,7 +9667,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>183</v>
       </c>
@@ -8518,7 +9675,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>185</v>
       </c>
@@ -8526,7 +9683,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>187</v>
       </c>
@@ -8534,7 +9691,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>189</v>
       </c>
@@ -8542,7 +9699,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>191</v>
       </c>
@@ -8550,7 +9707,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>193</v>
       </c>
@@ -8558,7 +9715,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>195</v>
       </c>
@@ -8566,7 +9723,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>197</v>
       </c>
@@ -8574,7 +9731,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>199</v>
       </c>
@@ -8582,7 +9739,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>200</v>
       </c>
@@ -8590,7 +9747,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>202</v>
       </c>
@@ -8598,7 +9755,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>203</v>
       </c>
@@ -8606,7 +9763,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>205</v>
       </c>
@@ -8614,7 +9771,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>207</v>
       </c>
@@ -8622,7 +9779,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>209</v>
       </c>
@@ -8630,7 +9787,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>211</v>
       </c>
@@ -8638,7 +9795,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>213</v>
       </c>
@@ -8646,7 +9803,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>215</v>
       </c>
@@ -8654,7 +9811,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>217</v>
       </c>
@@ -8662,7 +9819,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>219</v>
       </c>
@@ -8670,7 +9827,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>221</v>
       </c>
@@ -8678,7 +9835,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>223</v>
       </c>
@@ -8686,7 +9843,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>225</v>
       </c>
@@ -8694,7 +9851,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>227</v>
       </c>
@@ -8702,7 +9859,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>229</v>
       </c>
@@ -8710,7 +9867,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>230</v>
       </c>
@@ -8718,7 +9875,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>231</v>
       </c>
@@ -8726,7 +9883,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>232</v>
       </c>
@@ -8734,7 +9891,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>233</v>
       </c>
@@ -8742,7 +9899,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>235</v>
       </c>
@@ -8750,7 +9907,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>237</v>
       </c>
@@ -8758,7 +9915,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>239</v>
       </c>
@@ -8766,7 +9923,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>241</v>
       </c>
@@ -8774,7 +9931,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>242</v>
       </c>
@@ -8782,7 +9939,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>244</v>
       </c>
@@ -8790,7 +9947,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>246</v>
       </c>
@@ -8798,7 +9955,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>248</v>
       </c>
@@ -8806,7 +9963,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>250</v>
       </c>
@@ -8814,7 +9971,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>252</v>
       </c>
@@ -8822,7 +9979,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>254</v>
       </c>
@@ -8830,7 +9987,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>255</v>
       </c>
@@ -8838,7 +9995,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>256</v>
       </c>
@@ -8846,7 +10003,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>258</v>
       </c>
@@ -8854,7 +10011,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>260</v>
       </c>
@@ -8862,7 +10019,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>262</v>
       </c>
@@ -8870,7 +10027,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>264</v>
       </c>
@@ -8878,7 +10035,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>266</v>
       </c>
@@ -8886,7 +10043,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>268</v>
       </c>
@@ -8894,7 +10051,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>270</v>
       </c>
@@ -8902,7 +10059,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>271</v>
       </c>
@@ -8922,9 +10079,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>273</v>
       </c>
@@ -8932,7 +10089,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>275</v>
       </c>
@@ -8940,7 +10097,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>277</v>
       </c>
@@ -8948,7 +10105,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>279</v>
       </c>
@@ -8956,7 +10113,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>281</v>
       </c>
@@ -8964,7 +10121,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>283</v>
       </c>
@@ -8972,7 +10129,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>285</v>
       </c>
@@ -8980,7 +10137,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>287</v>
       </c>
@@ -8988,7 +10145,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>289</v>
       </c>
@@ -8996,7 +10153,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>291</v>
       </c>
@@ -9004,7 +10161,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>293</v>
       </c>
@@ -9012,7 +10169,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>295</v>
       </c>
@@ -9032,9 +10189,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>297</v>
       </c>
@@ -9042,7 +10199,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>299</v>
       </c>
@@ -9050,7 +10207,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>301</v>
       </c>
@@ -9058,7 +10215,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>303</v>
       </c>
@@ -9066,7 +10223,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>305</v>
       </c>
@@ -9074,7 +10231,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>307</v>
       </c>
@@ -9082,7 +10239,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>309</v>
       </c>
@@ -9090,7 +10247,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>311</v>
       </c>
@@ -9098,7 +10255,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>313</v>
       </c>
@@ -9106,7 +10263,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>315</v>
       </c>
@@ -9114,7 +10271,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>317</v>
       </c>
@@ -9122,7 +10279,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>319</v>
       </c>
@@ -9130,7 +10287,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>321</v>
       </c>
@@ -9150,9 +10307,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>323</v>
       </c>
@@ -9172,9 +10329,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>325</v>
       </c>
@@ -9182,7 +10339,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>327</v>
       </c>
@@ -9190,7 +10347,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>329</v>
       </c>
@@ -9198,7 +10355,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>331</v>
       </c>
@@ -9206,7 +10363,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>333</v>
       </c>
@@ -9214,7 +10371,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>335</v>
       </c>
@@ -9222,7 +10379,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>337</v>
       </c>
@@ -9230,7 +10387,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>339</v>
       </c>
@@ -9238,7 +10395,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>341</v>
       </c>
@@ -9246,7 +10403,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>343</v>
       </c>
@@ -9254,7 +10411,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>345</v>
       </c>
@@ -9262,7 +10419,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>347</v>
       </c>
@@ -9270,7 +10427,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>349</v>
       </c>
@@ -9278,7 +10435,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>351</v>
       </c>
@@ -9286,7 +10443,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>353</v>
       </c>
@@ -9294,7 +10451,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>355</v>
       </c>
@@ -9302,7 +10459,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>357</v>
       </c>
@@ -9310,7 +10467,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>359</v>
       </c>
@@ -9318,7 +10475,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>361</v>
       </c>
@@ -9326,7 +10483,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>363</v>
       </c>
@@ -9334,7 +10491,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>365</v>
       </c>
@@ -9342,7 +10499,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>367</v>
       </c>
@@ -9350,7 +10507,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>369</v>
       </c>
@@ -9358,7 +10515,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>371</v>
       </c>
@@ -9366,7 +10523,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>373</v>
       </c>
@@ -9374,7 +10531,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>375</v>
       </c>
@@ -9382,7 +10539,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>377</v>
       </c>
@@ -9390,7 +10547,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>379</v>
       </c>
@@ -9398,7 +10555,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>381</v>
       </c>
@@ -9406,7 +10563,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>383</v>
       </c>
@@ -9414,7 +10571,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>385</v>
       </c>
@@ -9422,7 +10579,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>387</v>
       </c>
@@ -9430,7 +10587,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>389</v>
       </c>
@@ -9438,7 +10595,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>391</v>
       </c>
@@ -9446,7 +10603,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>393</v>
       </c>
@@ -9454,7 +10611,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>395</v>
       </c>
@@ -9462,7 +10619,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>397</v>
       </c>
@@ -9470,7 +10627,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>399</v>
       </c>
@@ -9478,7 +10635,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>401</v>
       </c>
@@ -9486,7 +10643,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>403</v>
       </c>
@@ -9494,7 +10651,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>405</v>
       </c>
@@ -9502,7 +10659,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>407</v>
       </c>
@@ -9510,7 +10667,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>409</v>
       </c>
@@ -9518,7 +10675,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>411</v>
       </c>
@@ -9526,7 +10683,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>413</v>
       </c>
@@ -9534,7 +10691,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>415</v>
       </c>
@@ -9542,7 +10699,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>417</v>
       </c>
@@ -9550,7 +10707,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>419</v>
       </c>
@@ -9558,7 +10715,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="165" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>421</v>
       </c>
@@ -9566,7 +10723,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>423</v>
       </c>
@@ -9574,7 +10731,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>425</v>
       </c>
@@ -9582,7 +10739,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>427</v>
       </c>
@@ -9590,7 +10747,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>429</v>
       </c>
@@ -9598,7 +10755,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>431</v>
       </c>
@@ -9606,7 +10763,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>433</v>
       </c>
@@ -9614,7 +10771,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>435</v>
       </c>
@@ -9622,7 +10779,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>437</v>
       </c>
@@ -9630,7 +10787,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>439</v>
       </c>
@@ -9638,7 +10795,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>441</v>
       </c>
@@ -9646,7 +10803,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>443</v>
       </c>
@@ -9654,7 +10811,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>445</v>
       </c>
@@ -9662,7 +10819,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>447</v>
       </c>
@@ -9670,7 +10827,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>449</v>
       </c>
@@ -9678,7 +10835,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>451</v>
       </c>
@@ -9686,7 +10843,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>453</v>
       </c>
@@ -9694,7 +10851,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>455</v>
       </c>
@@ -9702,7 +10859,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>457</v>
       </c>
@@ -9717,6 +10874,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -9762,29 +10928,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-    <_dlc_DocId xmlns="a0a82402-f287-468d-a4e2-514652d7b906">PMSDOC-298-695</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="a0a82402-f287-468d-a4e2-514652d7b906">
-      <Url>http://sharepoint.prodatamobility.com/software/ReTiBo/Collaboration/_layouts/DocIdRedir.aspx?ID=PMSDOC-298-695</Url>
-      <Description>PMSDOC-298-695</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DA77A1B65DDC7C438174C741BEE1440A" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="556e679499179c82c5585af9859fe872">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a0a82402-f287-468d-a4e2-514652d7b906" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1873a0f4b49697fb0fec6fac4a0ffc71" ns2:_="" ns3:_="">
     <xsd:import namespace="a0a82402-f287-468d-a4e2-514652d7b906"/>
@@ -9940,7 +11084,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+    <_dlc_DocId xmlns="a0a82402-f287-468d-a4e2-514652d7b906">PMSDOC-298-695</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="a0a82402-f287-468d-a4e2-514652d7b906">
+      <Url>http://sharepoint.prodatamobility.com/software/ReTiBo/Collaboration/_layouts/DocIdRedir.aspx?ID=PMSDOC-298-695</Url>
+      <Description>PMSDOC-298-695</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E7444C3-519C-4946-AF86-74B261E091F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5797753D-F047-4075-96AA-101E6AE1B749}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -9948,32 +11113,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E7444C3-519C-4946-AF86-74B261E091F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F3A927E-427D-4420-ABA2-FAD06218970C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="a0a82402-f287-468d-a4e2-514652d7b906"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41B05861-B8DC-4B19-937E-42DAF94CA88E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9990,4 +11130,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F3A927E-427D-4420-ABA2-FAD06218970C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a0a82402-f287-468d-a4e2-514652d7b906"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>